--- a/aggregated_data_and_graphs.xlsx
+++ b/aggregated_data_and_graphs.xlsx
@@ -88,456 +88,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Average Runtime - Traffic Only - Parallel</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>644.0625</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>645.1171875</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1471</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>537.234375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>380.83100000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="91779072"/>
-        <c:axId val="91780608"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="91779072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Cores</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91780608"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="91780608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Runtime</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>(in seconds)</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91779072"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Average Runtime - Traffic Only - Sequential</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>648</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="115988352"/>
-        <c:axId val="115989888"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="115988352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Cores</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115989888"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="115989888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Average</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Runtime</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>(in seconds)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115988352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1666875</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -830,7 +380,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +470,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/aggregated_data_and_graphs.xlsx
+++ b/aggregated_data_and_graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="24030" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Number Of Cores</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>Total Simulation Runtime (in seconds)</t>
+  </si>
+  <si>
+    <t>Naïve Implementation</t>
   </si>
 </sst>
 </file>
@@ -88,6 +91,835 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Naïve Implementation - Sequential Average Travel Time</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="73836416"/>
+        <c:axId val="73837952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="73836416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73837952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73837952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Travel Time (in seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73836416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Naïve Implementation - Sequential Total Simulation Runtime</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1303.1202000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="91820032"/>
+        <c:axId val="91821568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="91820032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91821568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="91821568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Simulation Time (in seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91820032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Naïve Implementation - Parallel Average Runtime</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5533.5625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5533.4375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5533.9140630000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5533.8789059999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6715.6416019999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="96368512"/>
+        <c:axId val="96370048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="96368512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Cores</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96370048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96370048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Runtime (in seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96368512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Naïve Implementation - Parallel Total Simulation Time</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>55.992400000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.778500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.849899999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.279600000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.2012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="96199808"/>
+        <c:axId val="96201344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="96199808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96201344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96201344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Simulation Runtime (in seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96199808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2162175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,10 +1238,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>648</v>
+        <v>5533</v>
       </c>
       <c r="C2" s="1">
-        <v>10.106400000000001</v>
+        <v>1303.1202000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -417,10 +1249,10 @@
         <v>64</v>
       </c>
       <c r="B3" s="1">
-        <v>644.0625</v>
+        <v>5533.5625</v>
       </c>
       <c r="C3" s="1">
-        <v>0.34129999999999999</v>
+        <v>55.992400000000004</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -428,10 +1260,10 @@
         <v>128</v>
       </c>
       <c r="B4" s="1">
-        <v>645.1171875</v>
+        <v>5533.4375</v>
       </c>
       <c r="C4" s="1">
-        <v>0.18690000000000001</v>
+        <v>43.778500000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -439,10 +1271,10 @@
         <v>256</v>
       </c>
       <c r="B5" s="1">
-        <v>1471</v>
+        <v>5533.9140630000002</v>
       </c>
       <c r="C5" s="1">
-        <v>9.6699999999999994E-2</v>
+        <v>34.849899999999998</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -450,10 +1282,10 @@
         <v>512</v>
       </c>
       <c r="B6" s="1">
-        <v>537.234375</v>
+        <v>5533.8789059999999</v>
       </c>
       <c r="C6" s="1">
-        <v>0.126</v>
+        <v>36.279600000000002</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -461,15 +1293,21 @@
         <v>1024</v>
       </c>
       <c r="B7" s="1">
-        <v>380.83100000000002</v>
+        <v>6715.6416019999997</v>
       </c>
       <c r="C7" s="1">
-        <v>0.27489999999999998</v>
+        <v>18.2012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/aggregated_data_and_graphs.xlsx
+++ b/aggregated_data_and_graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="24030" windowHeight="7680"/>
+    <workbookView xWindow="-15" yWindow="1215" windowWidth="24030" windowHeight="8910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Number Of Cores</t>
   </si>
@@ -28,6 +28,18 @@
   </si>
   <si>
     <t>Naïve Implementation</t>
+  </si>
+  <si>
+    <t>Autonomous Optimized Results</t>
+  </si>
+  <si>
+    <t>Event Rate (events / second)</t>
+  </si>
+  <si>
+    <t>Remote Sends</t>
+  </si>
+  <si>
+    <t>Remote Recvs</t>
   </si>
 </sst>
 </file>
@@ -71,13 +83,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -159,11 +178,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73836416"/>
-        <c:axId val="73837952"/>
+        <c:axId val="41301504"/>
+        <c:axId val="41303424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73836416"/>
+        <c:axId val="41301504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -192,7 +211,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73837952"/>
+        <c:crossAx val="41303424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -200,7 +219,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73837952"/>
+        <c:axId val="41303424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -235,7 +254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73836416"/>
+        <c:crossAx val="41301504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -323,11 +342,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91820032"/>
-        <c:axId val="91821568"/>
+        <c:axId val="42147840"/>
+        <c:axId val="42149760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91820032"/>
+        <c:axId val="42147840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -356,7 +375,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91821568"/>
+        <c:crossAx val="42149760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -364,7 +383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91821568"/>
+        <c:axId val="42149760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -399,7 +418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91820032"/>
+        <c:crossAx val="42147840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -511,11 +530,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96368512"/>
-        <c:axId val="96370048"/>
+        <c:axId val="42162432"/>
+        <c:axId val="42180992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96368512"/>
+        <c:axId val="42162432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -549,7 +568,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96370048"/>
+        <c:crossAx val="42180992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -557,7 +576,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96370048"/>
+        <c:axId val="42180992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -592,7 +611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96368512"/>
+        <c:crossAx val="42162432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -704,11 +723,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96199808"/>
-        <c:axId val="96201344"/>
+        <c:axId val="42205952"/>
+        <c:axId val="42207872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96199808"/>
+        <c:axId val="42205952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,7 +756,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96201344"/>
+        <c:crossAx val="42207872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -745,7 +764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96201344"/>
+        <c:axId val="42207872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,7 +794,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96199808"/>
+        <c:crossAx val="42205952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -801,16 +820,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -831,16 +850,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2247900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -861,16 +880,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -891,16 +910,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2162175</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1209,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,9 +1239,12 @@
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1232,8 +1254,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1243,8 +1274,17 @@
       <c r="C2" s="1">
         <v>1303.1202000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>228199.1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>64</v>
       </c>
@@ -1254,8 +1294,17 @@
       <c r="C3" s="1">
         <v>55.992400000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>5310919.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6200107</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6200107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>128</v>
       </c>
@@ -1265,8 +1314,17 @@
       <c r="C4" s="1">
         <v>43.778500000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <v>6792627.4000000004</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6280776</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6280776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>256</v>
       </c>
@@ -1276,8 +1334,17 @@
       <c r="C5" s="1">
         <v>34.849899999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>8532909.4000000004</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6442406</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6442406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>512</v>
       </c>
@@ -1287,8 +1354,17 @@
       <c r="C6" s="1">
         <v>36.279600000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>8196640.9000000004</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6765830</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6765830</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1024</v>
       </c>
@@ -1298,8 +1374,17 @@
       <c r="C7" s="1">
         <v>18.2012</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>16347420.6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9828615</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9828615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1313,12 +1398,158 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4722</v>
+      </c>
+      <c r="C2" s="1">
+        <v>713.721</v>
+      </c>
+      <c r="D2" s="5">
+        <v>263315.09999999998</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4655.0625</v>
+      </c>
+      <c r="C3" s="1">
+        <v>67.389700000000005</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2772437.2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1300179</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1300179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4583.59375</v>
+      </c>
+      <c r="C4" s="1">
+        <v>34.467100000000002</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5371485.5999999996</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2612952</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2612952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3241.28125</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18.5808</v>
+      </c>
+      <c r="D5" s="5">
+        <v>9199654.4000000004</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2672039</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2672039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>128</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>256</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>512</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/aggregated_data_and_graphs.xlsx
+++ b/aggregated_data_and_graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="1215" windowWidth="24030" windowHeight="8910" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="24030" windowHeight="4905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,28 +140,58 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Naïve Implementation - Sequential Average Travel Time</c:v>
+            <c:v>Naïve Implementation - Sequential/Parallel Average Runtime</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5533</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5533.5625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5533.4375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5533.9140630000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5533.8789059999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6715.6416019999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -178,11 +208,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41301504"/>
-        <c:axId val="41303424"/>
+        <c:axId val="59774080"/>
+        <c:axId val="59776000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41301504"/>
+        <c:axId val="59774080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -199,8 +229,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of Cores</a:t>
+                  <a:t>Number</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Cores</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -211,7 +246,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41303424"/>
+        <c:crossAx val="59776000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -219,7 +254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41303424"/>
+        <c:axId val="59776000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -241,7 +276,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Travel Time (in seconds)</a:t>
+                  <a:t> Runtime (in seconds)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -254,7 +289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41301504"/>
+        <c:crossAx val="59774080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -304,28 +339,58 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Naïve Implementation - Sequential Total Simulation Runtime</c:v>
+            <c:v>Naïve Implementation - Sequential/Parallel Total Simulation Time</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1303.1202000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.992400000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.778500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.849899999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.279600000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.2012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -342,11 +407,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42147840"/>
-        <c:axId val="42149760"/>
+        <c:axId val="59810944"/>
+        <c:axId val="59812864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42147840"/>
+        <c:axId val="59810944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -375,7 +440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42149760"/>
+        <c:crossAx val="59812864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -383,7 +448,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42149760"/>
+        <c:axId val="59812864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -401,13 +466,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Total</a:t>
+                  <a:t>Total Simulation Runtime (in seconds)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Simulation Time (in seconds)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -418,7 +478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42147840"/>
+        <c:crossAx val="59810944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -468,27 +528,30 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Naïve Implementation - Parallel Average Runtime</c:v>
+            <c:v>Naïve Implementation - Sequential/Parallel Event Rate</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
@@ -496,24 +559,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$7</c:f>
+              <c:f>Sheet1!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5533.5625</c:v>
+                  <c:v>228199.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5533.4375</c:v>
+                  <c:v>5310919.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5533.9140630000002</c:v>
+                  <c:v>6792627.4000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5533.8789059999999</c:v>
+                  <c:v>8532909.4000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6715.6416019999997</c:v>
+                  <c:v>8196640.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16347420.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -530,11 +596,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42162432"/>
-        <c:axId val="42180992"/>
+        <c:axId val="74609408"/>
+        <c:axId val="74610944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42162432"/>
+        <c:axId val="74609408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,7 +634,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42180992"/>
+        <c:crossAx val="74610944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -576,7 +642,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42180992"/>
+        <c:axId val="74610944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -594,11 +660,20 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Average</a:t>
+                  <a:t>Event</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Runtime (in seconds)</a:t>
+                  <a:t> Rate</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>(events/second)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -611,7 +686,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42162432"/>
+        <c:crossAx val="74609408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -648,6 +723,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Naïve Implementation - Sequential/Parallel Remote Sends</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -661,27 +751,30 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Naïve Implementation - Parallel Total Simulation Time</c:v>
+            <c:v>Naïve Implementation - Sequential/Prallel Remote Sends</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
@@ -689,24 +782,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$7</c:f>
+              <c:f>Sheet1!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>55.992400000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.778500000000001</c:v>
+                  <c:v>6200107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.849899999999998</c:v>
+                  <c:v>6280776</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.279600000000002</c:v>
+                  <c:v>6442406</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.2012</c:v>
+                  <c:v>6765830</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9828615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -723,11 +819,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42205952"/>
-        <c:axId val="42207872"/>
+        <c:axId val="84857984"/>
+        <c:axId val="83448576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42205952"/>
+        <c:axId val="84857984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,8 +840,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of Cores</a:t>
+                  <a:t>Number</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Cores</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -756,7 +857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42207872"/>
+        <c:crossAx val="83448576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -764,7 +865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42207872"/>
+        <c:axId val="83448576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -782,7 +883,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Total Simulation Runtime (in seconds)</a:t>
+                  <a:t>Remote Sends</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -794,7 +895,216 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42205952"/>
+        <c:crossAx val="84857984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Naïve Implementation - Sequential/Parallel Remote Receives</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Naïve Implementation - Sequential/Paralell Remote Receives</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6200107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6280776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6442406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6765830</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9828615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="95264128"/>
+        <c:axId val="97662080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="95264128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Cores</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97662080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="97662080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Remote Receives</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95264128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -821,19 +1131,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2171700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -850,20 +1160,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2247900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -880,20 +1190,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -910,20 +1220,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1847850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -933,6 +1243,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1230,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/aggregated_data_and_graphs.xlsx
+++ b/aggregated_data_and_graphs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="24030" windowHeight="4905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="23480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -149,22 +154,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -176,7 +181,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5533</c:v>
+                  <c:v>5533.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5533.5625</c:v>
@@ -185,13 +190,13 @@
                   <c:v>5533.4375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5533.9140630000002</c:v>
+                  <c:v>5533.914063</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5533.8789059999999</c:v>
+                  <c:v>5533.878906</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6715.6416019999997</c:v>
+                  <c:v>6715.641602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -208,11 +213,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59774080"/>
-        <c:axId val="59776000"/>
+        <c:axId val="2059466104"/>
+        <c:axId val="2059458936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59774080"/>
+        <c:axId val="2059466104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -246,7 +251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59776000"/>
+        <c:crossAx val="2059458936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -254,7 +259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59776000"/>
+        <c:axId val="2059458936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -264,7 +269,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" vert="horz"/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -289,16 +294,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59774080"/>
+        <c:crossAx val="2059466104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
@@ -348,22 +348,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -375,19 +375,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1303.1202000000001</c:v>
+                  <c:v>1303.1202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.992400000000004</c:v>
+                  <c:v>55.9924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.778500000000001</c:v>
+                  <c:v>43.7785</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.849899999999998</c:v>
+                  <c:v>34.8499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.279600000000002</c:v>
+                  <c:v>36.2796</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>18.2012</c:v>
@@ -407,11 +407,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59810944"/>
-        <c:axId val="59812864"/>
+        <c:axId val="2120638376"/>
+        <c:axId val="2120643880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59810944"/>
+        <c:axId val="2120638376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -440,7 +440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59812864"/>
+        <c:crossAx val="2120643880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -448,7 +448,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59812864"/>
+        <c:axId val="2120643880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -458,7 +458,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" vert="horz"/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -478,16 +478,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59810944"/>
+        <c:crossAx val="2120638376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
@@ -537,22 +532,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,19 +562,19 @@
                   <c:v>228199.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5310919.5</c:v>
+                  <c:v>5.3109195E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6792627.4000000004</c:v>
+                  <c:v>6.7926274E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8532909.4000000004</c:v>
+                  <c:v>8.5329094E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8196640.9000000004</c:v>
+                  <c:v>8.1966409E6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16347420.6</c:v>
+                  <c:v>1.63474206E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,11 +591,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74609408"/>
-        <c:axId val="74610944"/>
+        <c:axId val="2120673752"/>
+        <c:axId val="2120679496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74609408"/>
+        <c:axId val="2120673752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -634,7 +629,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74610944"/>
+        <c:crossAx val="2120679496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -642,7 +637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74610944"/>
+        <c:axId val="2120679496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -686,7 +681,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74609408"/>
+        <c:crossAx val="2120673752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -760,22 +755,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,22 +782,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6200107</c:v>
+                  <c:v>6.200107E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6280776</c:v>
+                  <c:v>6.280776E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6442406</c:v>
+                  <c:v>6.442406E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6765830</c:v>
+                  <c:v>6.76583E6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9828615</c:v>
+                  <c:v>9.828615E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -819,11 +814,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="84857984"/>
-        <c:axId val="83448576"/>
+        <c:axId val="2120708424"/>
+        <c:axId val="2120714168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84857984"/>
+        <c:axId val="2120708424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -857,7 +852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83448576"/>
+        <c:crossAx val="2120714168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -865,7 +860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83448576"/>
+        <c:axId val="2120714168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,7 +890,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84857984"/>
+        <c:crossAx val="2120708424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -969,22 +964,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -996,22 +991,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6200107</c:v>
+                  <c:v>6.200107E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6280776</c:v>
+                  <c:v>6.280776E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6442406</c:v>
+                  <c:v>6.442406E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6765830</c:v>
+                  <c:v>6.76583E6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9828615</c:v>
+                  <c:v>9.828615E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1028,11 +1023,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95264128"/>
-        <c:axId val="97662080"/>
+        <c:axId val="2120743304"/>
+        <c:axId val="2120749048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95264128"/>
+        <c:axId val="2120743304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1066,7 +1061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97662080"/>
+        <c:crossAx val="2120749048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1074,7 +1069,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97662080"/>
+        <c:axId val="2120749048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1104,7 +1099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95264128"/>
+        <c:crossAx val="2120743304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1161,15 +1156,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1457325</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>1698625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1190,15 +1185,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1346200</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1221,15 +1216,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1847850</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>65087</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1251,15 +1246,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>1365250</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>96837</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1571,20 +1566,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1604,7 +1599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1624,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>64</v>
       </c>
@@ -1644,7 +1639,7 @@
         <v>6200107</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>128</v>
       </c>
@@ -1664,7 +1659,7 @@
         <v>6280776</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>256</v>
       </c>
@@ -1684,7 +1679,7 @@
         <v>6442406</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>512</v>
       </c>
@@ -1704,7 +1699,7 @@
         <v>6765830</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>1024</v>
       </c>
@@ -1724,15 +1719,20 @@
         <v>9828615</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1744,17 +1744,17 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>16</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>1300179</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>32</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>2612952</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>64</v>
       </c>
@@ -1854,35 +1854,35 @@
         <v>2672039</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>128</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>256</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>512</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>1024</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -1891,6 +1891,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1900,8 +1905,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/aggregated_data_and_graphs.xlsx
+++ b/aggregated_data_and_graphs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="23480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,22 +154,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -181,7 +181,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5533.0</c:v>
+                  <c:v>5533</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5533.5625</c:v>
@@ -190,13 +190,13 @@
                   <c:v>5533.4375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5533.914063</c:v>
+                  <c:v>5533.9140630000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5533.878906</c:v>
+                  <c:v>5533.8789059999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6715.641602</c:v>
+                  <c:v>6715.6416019999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -213,11 +213,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2059466104"/>
-        <c:axId val="2059458936"/>
+        <c:axId val="44470656"/>
+        <c:axId val="44472576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2059466104"/>
+        <c:axId val="44470656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -251,7 +251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2059458936"/>
+        <c:crossAx val="44472576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -259,7 +259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2059458936"/>
+        <c:axId val="44472576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -294,11 +294,193 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2059466104"/>
+        <c:crossAx val="44470656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Autonomous Implementation - Remote Receives</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1300179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2612952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2672039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="77188096"/>
+        <c:axId val="77193984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="77188096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77193984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77193984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Remote</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Receives</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77188096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
@@ -348,22 +530,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -375,19 +557,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1303.1202</c:v>
+                  <c:v>1303.1202000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.9924</c:v>
+                  <c:v>55.992400000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.7785</c:v>
+                  <c:v>43.778500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.8499</c:v>
+                  <c:v>34.849899999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.2796</c:v>
+                  <c:v>36.279600000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>18.2012</c:v>
@@ -407,11 +589,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2120638376"/>
-        <c:axId val="2120643880"/>
+        <c:axId val="44493056"/>
+        <c:axId val="44638592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2120638376"/>
+        <c:axId val="44493056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -440,7 +622,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120643880"/>
+        <c:crossAx val="44638592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -448,7 +630,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120643880"/>
+        <c:axId val="44638592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -478,7 +660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120638376"/>
+        <c:crossAx val="44493056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -532,22 +714,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -562,19 +744,19 @@
                   <c:v>228199.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3109195E6</c:v>
+                  <c:v>5310919.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7926274E6</c:v>
+                  <c:v>6792627.4000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5329094E6</c:v>
+                  <c:v>8532909.4000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1966409E6</c:v>
+                  <c:v>8196640.9000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.63474206E7</c:v>
+                  <c:v>16347420.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,11 +773,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2120673752"/>
-        <c:axId val="2120679496"/>
+        <c:axId val="44667264"/>
+        <c:axId val="44669184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2120673752"/>
+        <c:axId val="44667264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120679496"/>
+        <c:crossAx val="44669184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -637,7 +819,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120679496"/>
+        <c:axId val="44669184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -681,7 +863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120673752"/>
+        <c:crossAx val="44667264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -733,7 +915,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -755,22 +936,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -782,22 +963,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.200107E6</c:v>
+                  <c:v>6200107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.280776E6</c:v>
+                  <c:v>6280776</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.442406E6</c:v>
+                  <c:v>6442406</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.76583E6</c:v>
+                  <c:v>6765830</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.828615E6</c:v>
+                  <c:v>9828615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -814,11 +995,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2120708424"/>
-        <c:axId val="2120714168"/>
+        <c:axId val="44690048"/>
+        <c:axId val="57688832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2120708424"/>
+        <c:axId val="44690048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -845,14 +1026,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120714168"/>
+        <c:crossAx val="57688832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -860,7 +1040,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120714168"/>
+        <c:axId val="57688832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,21 +1063,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120708424"/>
+        <c:crossAx val="44690048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -942,7 +1120,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -964,22 +1141,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -991,22 +1168,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.200107E6</c:v>
+                  <c:v>6200107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.280776E6</c:v>
+                  <c:v>6280776</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.442406E6</c:v>
+                  <c:v>6442406</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.76583E6</c:v>
+                  <c:v>6765830</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.828615E6</c:v>
+                  <c:v>9828615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1023,11 +1200,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2120743304"/>
-        <c:axId val="2120749048"/>
+        <c:axId val="57717888"/>
+        <c:axId val="57719808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2120743304"/>
+        <c:axId val="57717888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1054,14 +1231,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120749048"/>
+        <c:crossAx val="57719808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1069,7 +1245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120749048"/>
+        <c:axId val="57719808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,6 +1268,143 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57717888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Autonomous Implementation - Average Runtime per Car</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4655.0625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4583.59375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3241.28125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="114181632"/>
+        <c:axId val="114183168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="114181632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
@@ -1099,7 +1412,639 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120743304"/>
+        <c:crossAx val="114183168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="114183168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Runtime</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>per</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Car (in seconds)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114181632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Autonomous Implementation - Total Simulation Runtime</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>713.721</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.389700000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.467100000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.5808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="89397504"/>
+        <c:axId val="89399296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="89397504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89399296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89399296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Simulation Runtime (in seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89397504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Autonomous Implementation - Event Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Event Rate</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>263315.09999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2772437.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5371485.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9199654.4000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="75787264"/>
+        <c:axId val="75789056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="75787264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75789056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75789056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Event Rate</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(in seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75787264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Autonomous Implementation - Remote Sends</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Autonomous Implementation - Remote Sends</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1300179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2612952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2672039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="77351936"/>
+        <c:axId val="77353728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="77351936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77353728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77353728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Remote</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Sends</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77351936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1185,16 +2130,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1346200</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1259,6 +2204,161 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1114426</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1565,21 +2665,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +2699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1619,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>64</v>
       </c>
@@ -1639,7 +2739,7 @@
         <v>6200107</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>128</v>
       </c>
@@ -1659,7 +2759,7 @@
         <v>6280776</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>256</v>
       </c>
@@ -1679,7 +2779,7 @@
         <v>6442406</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>512</v>
       </c>
@@ -1699,7 +2799,7 @@
         <v>6765830</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1024</v>
       </c>
@@ -1719,7 +2819,7 @@
         <v>9828615</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1740,21 +2840,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1774,7 +2874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1794,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>16</v>
       </c>
@@ -1814,7 +2914,7 @@
         <v>1300179</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>32</v>
       </c>
@@ -1834,7 +2934,7 @@
         <v>2612952</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>64</v>
       </c>
@@ -1854,35 +2954,35 @@
         <v>2672039</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>128</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>256</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>512</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1024</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -1891,6 +2991,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1905,7 +3006,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
